--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_category/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_category/expected_result.xlsx
@@ -558,32 +558,32 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
       <c r="C2" s="6" t="inlineStr"/>
       <c r="D2" s="6" t="inlineStr"/>
       <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
       <c r="K2" s="6" t="inlineStr"/>
       <c r="L2" s="6" t="inlineStr"/>
       <c r="M2" s="6" t="inlineStr"/>
       <c r="N2" s="6" t="inlineStr"/>
       <c r="O2" s="6" t="n">
-        <v>-930955.85</v>
+        <v>-953329.67</v>
       </c>
     </row>
     <row r="3">
@@ -595,7 +595,7 @@
       <c r="B3" s="6" t="inlineStr"/>
       <c r="C3" s="6" t="inlineStr"/>
       <c r="D3" s="6" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
       <c r="E3" s="6" t="inlineStr"/>
       <c r="F3" s="6" t="inlineStr"/>
@@ -606,11 +606,11 @@
       <c r="K3" s="6" t="inlineStr"/>
       <c r="L3" s="6" t="inlineStr"/>
       <c r="M3" s="6" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
       <c r="N3" s="6" t="inlineStr"/>
       <c r="O3" s="6" t="n">
-        <v>-256057.6</v>
+        <v>-262008.44</v>
       </c>
     </row>
     <row r="4">
@@ -621,11 +621,11 @@
       </c>
       <c r="B4" s="6" t="inlineStr"/>
       <c r="C4" s="6" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
       <c r="D4" s="6" t="inlineStr"/>
       <c r="E4" s="6" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
       <c r="F4" s="6" t="inlineStr"/>
       <c r="G4" s="6" t="inlineStr"/>
@@ -636,10 +636,10 @@
       <c r="L4" s="6" t="inlineStr"/>
       <c r="M4" s="6" t="inlineStr"/>
       <c r="N4" s="6" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>3124425.58</v>
+        <v>3006339.6</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
       <c r="K5" s="6" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
       <c r="L5" s="6" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
       <c r="M5" s="6" t="inlineStr"/>
       <c r="N5" s="6" t="inlineStr"/>
@@ -676,46 +676,46 @@
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
